--- a/Capstone Project API and DB - Draft 1.xlsx
+++ b/Capstone Project API and DB - Draft 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26625"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C3A3D1-E39D-4363-B767-4687E5A3A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE45B2E7-0E63-49BC-AB94-251C0988F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="32">
   <si>
     <t>API: https://developer.uspto.gov/api-catalog </t>
   </si>
@@ -63,15 +63,6 @@
     <t>middlename</t>
   </si>
   <si>
-    <t xml:space="preserve">company </t>
-  </si>
-  <si>
-    <t>one to many</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -111,10 +102,28 @@
     <t>phone number</t>
   </si>
   <si>
+    <t>Full Name</t>
+  </si>
+  <si>
     <t>patentnumber</t>
   </si>
   <si>
-    <t>inventors</t>
+    <t>patent_inventor_list</t>
+  </si>
+  <si>
+    <t>inventorid</t>
+  </si>
+  <si>
+    <t>patentnum</t>
+  </si>
+  <si>
+    <t>patents</t>
+  </si>
+  <si>
+    <t>PatentName</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -256,27 +265,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,8 +407,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="">
@@ -329,7 +427,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="">
@@ -374,8 +472,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="">
@@ -397,7 +495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="">
@@ -432,10 +530,218 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9E5F46-1E4E-491F-B1C9-B114362B5207}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D5381217-704C-49DB-9FD9-300F44DB59AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6543675" y="5191125"/>
+            <a:ext cx="2400300" cy="952500"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9E5F46-1E4E-491F-B1C9-B114362B5207}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D5381217-704C-49DB-9FD9-300F44DB59AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6525690" y="5173221"/>
+              <a:ext cx="2435911" cy="987950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B9F6DC-B7C5-4B13-AB27-37EF3B00A5C1}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EB9E5F46-1E4E-491F-B1C9-B114362B5207}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6515100" y="6753225"/>
+            <a:ext cx="5857875" cy="1266825"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B9F6DC-B7C5-4B13-AB27-37EF3B00A5C1}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EB9E5F46-1E4E-491F-B1C9-B114362B5207}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6497468" y="6735595"/>
+              <a:ext cx="5893499" cy="1302444"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-29T04:35:13.485"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9396 7250 16383 0 0,'0'0'0'0'0,"0"-4"0"0"0,-1-9 0 0 0,-1-15 0 0 0,2-18 0 0 0,5-25 0 0 0,9-28 0 0 0,17-27 0 0 0,24-25 0 0 0,30-21 0 0 0,31-10 0 0 0,27-3 0 0 0,18 10 0 0 0,6 16 0 0 0,-3 22 0 0 0,-5 23 0 0 0,-6 24 0 0 0,-6 22 0 0 0,-6 18 0 0 0,-7 16 0 0 0,-4 12 0 0 0,-1 8 0 0 0,-1 7 0 0 0,1 4 0 0 0,2 3 0 0 0,0 2 0 0 0,-4 0 0 0 0,-6 1 0 0 0,-13 1 0 0 0,-12 0 0 0 0,-12 1 0 0 0,-7-1 0 0 0,-4 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-7 0 0 0 0,-4-1 0 0 0,-2 1 0 0 0,1-2 0 0 0,0 0 0 0 0,-8 0 0 0 0,-9-2 0 0 0,-10 0 0 0 0,-5-1 0 0 0,-7 1 0 0 0,-4-2 0 0 0,-1 1 0 0 0,5-1 0 0 0,5 0 0 0 0,-2 0 0 0 0,-2 1 0 0 0,-7-1 0 0 0,-11 4-16383 0 0,-5 0 16383 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">12868 5293 16383 0 0,'1'0'0'0'0,"5"-1"0"0"0,9-2 0 0 0,9-2 0 0 0,8-2 0 0 0,4-2 0 0 0,-2 1 0 0 0,-7 1 0 0 0,-3 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3 0 0 0 0,-3 2 0 0 0,-3 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-2 0 0 0,-2 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2-2 0 0 0,-1 1 0 0 0,-2 1 0 0 0,-2 2 0 0 0,-3 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">12915 5397 16383 0 0,'0'1'0'0'0,"1"-1"0"0"0,1 2 0 0 0,2 0 0 0 0,2 2 0 0 0,2 0 0 0 0,1 2 0 0 0,2 1 0 0 0,2 1 0 0 0,1 0 0 0 0,2 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,-1 0 0 0 0,2 3 0 0 0,7 4 0 0 0,3 4 0 0 0,2 1 0 0 0,-3-2 0 0 0,-5-3 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-29T04:35:13.486"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8759 11295 16383 0 0,'0'2'0'0'0,"1"12"0"0"0,4 21 0 0 0,9 23 0 0 0,13 27 0 0 0,20 29 0 0 0,21 25 0 0 0,18 13 0 0 0,12 2 0 0 0,13-4 0 0 0,18-8 0 0 0,22-10 0 0 0,27-15 0 0 0,28-21 0 0 0,16-24 0 0 0,-2-23 0 0 0,-15-20 0 0 0,-23-16 0 0 0,-23-10 0 0 0,-24-9 0 0 0,-20-7 0 0 0,-15-9 0 0 0,-4-11 0 0 0,6-11 0 0 0,14-10 0 0 0,15-6 0 0 0,2-3 0 0 0,-9 4 0 0 0,-17 3 0 0 0,-17 5 0 0 0,-16 3 0 0 0,-13 4 0 0 0,-11 2 0 0 0,-8 2 0 0 0,-6 2 0 0 0,0 0 0 0 0,2 0 0 0 0,1 1 0 0 0,0 2 0 0 0,0 2 0 0 0,0 0 0 0 0,3-1 0 0 0,5-1 0 0 0,3-2 0 0 0,0 2 0 0 0,-3 4 0 0 0,-8 5 0 0 0,-4 4 0 0 0,-4 5 0 0 0,-4 2 0 0 0,-3 4 0 0 0,-6 3 0 0 0,-5 3 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,4-1 0 0 0,4 0 0 0 0,2-2 0 0 0,1 0 0 0 0,-3 2 0 0 0,-5 1 0 0 0,-3 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,-4 0 0 0 0,-10 1 0 0 0,-12 1-16383 0 0,-4 2 16383 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">12794 11751 16383 0 0,'1'0'0'0'0,"3"-2"0"0"0,7-5 0 0 0,10-7 0 0 0,8-4 0 0 0,7-5 0 0 0,2-2 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 2 0 0 0,-1 0 0 0 0,-3 1 0 0 0,-1 2 0 0 0,-3 1 0 0 0,-1 1 0 0 0,-3 1 0 0 0,-3 3 0 0 0,-2 2 0 0 0,-2 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 2 0 0 0,-2 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">12855 11745 16383 0 0,'1'0'0'0'0,"0"0"0"0"0,3 0 0 0 0,3 0 0 0 0,5 1 0 0 0,6-1 0 0 0,6 2 0 0 0,3 0 0 0 0,1 0 0 0 0,-3 1 0 0 0,-2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,3 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3 1 0 0 0,-1 0 0 0 0,2 2 0 0 0,0 0 0 0 0,-2 0 0 0 0,-4-1 0 0 0,-3-2 0 0 0,-4 0 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -461,13 +767,13 @@
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9396 7250 16383 0 0,'0'0'0'0'0,"0"-4"0"0"0,-1-9 0 0 0,-1-15 0 0 0,2-18 0 0 0,5-25 0 0 0,9-28 0 0 0,17-27 0 0 0,24-25 0 0 0,30-21 0 0 0,31-10 0 0 0,27-3 0 0 0,18 10 0 0 0,6 16 0 0 0,-3 22 0 0 0,-5 23 0 0 0,-6 24 0 0 0,-6 22 0 0 0,-6 18 0 0 0,-7 16 0 0 0,-4 12 0 0 0,-1 8 0 0 0,-1 7 0 0 0,1 4 0 0 0,2 3 0 0 0,0 2 0 0 0,-4 0 0 0 0,-6 1 0 0 0,-13 1 0 0 0,-12 0 0 0 0,-12 1 0 0 0,-7-1 0 0 0,-4 1 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-7 0 0 0 0,-4-1 0 0 0,-2 1 0 0 0,1-2 0 0 0,0 0 0 0 0,-8 0 0 0 0,-9-2 0 0 0,-10 0 0 0 0,-5-1 0 0 0,-7 1 0 0 0,-4-2 0 0 0,-1 1 0 0 0,5-1 0 0 0,5 0 0 0 0,-2 0 0 0 0,-2 1 0 0 0,-7-1 0 0 0,-11 4-16383 0 0,-5 0 16383 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.23">12868 5293 16383 0 0,'1'0'0'0'0,"5"-1"0"0"0,9-2 0 0 0,9-2 0 0 0,8-2 0 0 0,4-2 0 0 0,-2 1 0 0 0,-7 1 0 0 0,-3 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3 0 0 0 0,-3 2 0 0 0,-3 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-2 0 0 0,-2 2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,2-2 0 0 0,-1 1 0 0 0,-2 1 0 0 0,-2 2 0 0 0,-3 1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.43">12915 5397 16383 0 0,'0'1'0'0'0,"1"-1"0"0"0,1 2 0 0 0,2 0 0 0 0,2 2 0 0 0,2 0 0 0 0,1 2 0 0 0,2 1 0 0 0,2 1 0 0 0,1 0 0 0 0,2 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,-1 0 0 0 0,2 3 0 0 0,7 4 0 0 0,3 4 0 0 0,2 1 0 0 0,-3-2 0 0 0,-5-3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18164 4353 16383 0 0,'3'-1'0'0'0,"11"-2"0"0"0,27-4 0 0 0,53-6 0 0 0,74-2 0 0 0,83-1 0 0 0,80 2 0 0 0,64 5 0 0 0,19 9 0 0 0,4 10 0 0 0,2 11 0 0 0,-22 9 0 0 0,-35 7 0 0 0,-37 7 0 0 0,-36 10 0 0 0,-30 10 0 0 0,-24 8 0 0 0,-16 11 0 0 0,-11 9 0 0 0,-9 7 0 0 0,-16 2 0 0 0,-18-2 0 0 0,-20-4 0 0 0,-19-7 0 0 0,-19-9 0 0 0,-17-8 0 0 0,-17-8 0 0 0,-13-7 0 0 0,-11-5 0 0 0,-7-1 0 0 0,-4 2 0 0 0,-5 3 0 0 0,-7-2 0 0 0,-7-2 0 0 0,-7-1 0 0 0,-6 0 0 0 0,-3 3 0 0 0,-4 2 0 0 0,-1 3 0 0 0,-2 1 0 0 0,-1-3 0 0 0,-1-2 0 0 0,0-4 0 0 0,0-9 0 0 0,2-8 0 0 0,-1-5 0 0 0,2 0 0 0 0,0-2 0 0 0,0 0 0 0 0,0-3 0 0 0,0 0 0 0 0,0-1 0 0 0,0-2 0 0 0,0-2 0 0 0,1-4 0 0 0,-1-3 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 3 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-3 0 0 0,1-1 0 0 0,0 1 0 0 0,0 6 0 0 0,0 5 0 0 0,1 4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-6 0 0 0,1-6 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.27">24363 6407 16383 0 0,'0'0'0'0'0,"-1"3"0"0"0,-4 7 0 0 0,-6 9 0 0 0,-5 6 0 0 0,-5 4 0 0 0,-2 4 0 0 0,-2 0 0 0 0,0 1 0 0 0,1-3 0 0 0,2-1 0 0 0,2-4 0 0 0,3-2 0 0 0,1-4 0 0 0,2-2 0 0 0,0-2 0 0 0,0 0 0 0 0,1 0 0 0 0,0-2 0 0 0,2-1 0 0 0,0 1 0 0 0,-2 2 0 0 0,1 1 0 0 0,1-1 0 0 0,1-1 0 0 0,1-1 0 0 0,2-3 0 0 0,1-2 0 0 0,2-4 0 0 0,0-7-16383 0 0,2-2 16383 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.44">24455 6446 16383 0 0,'1'2'0'0'0,"4"5"0"0"0,6 7 0 0 0,9 8 0 0 0,10 6 0 0 0,6 3 0 0 0,1-1 0 0 0,-5-4 0 0 0,-6-7 0 0 0,-7-4 0 0 0,-3-2 0 0 0,1 3 0 0 0,3 2 0 0 0,0 2 0 0 0,-3-3 0 0 0,-3 0 0 0 0,-1 4 0 0 0,1 4 0 0 0,-1 0 0 0 0,-1-6-16383 0 0,-4-5 16383 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -493,9 +799,11 @@
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8759 11295 16383 0 0,'0'2'0'0'0,"1"12"0"0"0,4 21 0 0 0,9 23 0 0 0,13 27 0 0 0,20 29 0 0 0,21 25 0 0 0,18 13 0 0 0,12 2 0 0 0,13-4 0 0 0,18-8 0 0 0,22-10 0 0 0,27-15 0 0 0,28-21 0 0 0,16-24 0 0 0,-2-23 0 0 0,-15-20 0 0 0,-23-16 0 0 0,-23-10 0 0 0,-24-9 0 0 0,-20-7 0 0 0,-15-9 0 0 0,-4-11 0 0 0,6-11 0 0 0,14-10 0 0 0,15-6 0 0 0,2-3 0 0 0,-9 4 0 0 0,-17 3 0 0 0,-17 5 0 0 0,-16 3 0 0 0,-13 4 0 0 0,-11 2 0 0 0,-8 2 0 0 0,-6 2 0 0 0,0 0 0 0 0,2 0 0 0 0,1 1 0 0 0,0 2 0 0 0,0 2 0 0 0,0 0 0 0 0,3-1 0 0 0,5-1 0 0 0,3-2 0 0 0,0 2 0 0 0,-3 4 0 0 0,-8 5 0 0 0,-4 4 0 0 0,-4 5 0 0 0,-4 2 0 0 0,-3 4 0 0 0,-6 3 0 0 0,-5 3 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,4-1 0 0 0,4 0 0 0 0,2-2 0 0 0,1 0 0 0 0,-3 2 0 0 0,-5 1 0 0 0,-3 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,-4 0 0 0 0,-10 1 0 0 0,-12 1-16383 0 0,-4 2 16383 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.24">12794 11751 16383 0 0,'1'0'0'0'0,"3"-2"0"0"0,7-5 0 0 0,10-7 0 0 0,8-4 0 0 0,7-5 0 0 0,2-2 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 2 0 0 0,-1 0 0 0 0,-3 1 0 0 0,-1 2 0 0 0,-3 1 0 0 0,-1 1 0 0 0,-3 1 0 0 0,-3 3 0 0 0,-2 2 0 0 0,-2 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 2 0 0 0,-2 1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.39">12855 11745 16383 0 0,'1'0'0'0'0,"0"0"0"0"0,3 0 0 0 0,3 0 0 0 0,5 1 0 0 0,6-1 0 0 0,6 2 0 0 0,3 0 0 0 0,1 0 0 0 0,-3 1 0 0 0,-2 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,3 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-3 1 0 0 0,-1 0 0 0 0,2 2 0 0 0,0 0 0 0 0,-2 0 0 0 0,-4-1 0 0 0,-3-2 0 0 0,-4 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18088 11293 16383 0 0,'0'1'0'0'0,"6"1"0"0"0,20 4 0 0 0,36 8 0 0 0,49 8 0 0 0,57 7 0 0 0,48 5 0 0 0,27 0 0 0 0,7-4 0 0 0,-5-8 0 0 0,-11-9 0 0 0,-13-7 0 0 0,-11-7 0 0 0,-6-7 0 0 0,-2-4 0 0 0,-10-7 0 0 0,-14-4 0 0 0,-17-5 0 0 0,-19-6 0 0 0,-17-7 0 0 0,-15-8 0 0 0,-8-9 0 0 0,-3-12 0 0 0,0-14 0 0 0,0-10 0 0 0,0-11 0 0 0,-1-8 0 0 0,-3-2 0 0 0,-8 3 0 0 0,-10 9 0 0 0,-12 9 0 0 0,-8 6 0 0 0,-5 3 0 0 0,-2 2 0 0 0,-1 1 0 0 0,-3 4 0 0 0,-5 4 0 0 0,-4 6 0 0 0,-6 6 0 0 0,-5 5 0 0 0,-5 6 0 0 0,-5 2 0 0 0,-2 1 0 0 0,-2-1 0 0 0,0-2 0 0 0,2-3 0 0 0,1-2 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-1 3 0 0 0,-1 4 0 0 0,-2 5 0 0 0,-1 6 0 0 0,-3 6 0 0 0,-1 7 0 0 0,-1 3 0 0 0,-1 3 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 4 0 0 0,1-1 0 0 0,-1-4 0 0 0,0-4 0 0 0,0-2 0 0 0,-2 2 0 0 0,1 4 0 0 0,0 5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.26">22756 9428 16383 0 0,'-1'0'0'0'0,"-1"-3"0"0"0,-7-6 0 0 0,-13-12 0 0 0,-16-17 0 0 0,-18-17 0 0 0,-12-14 0 0 0,-3-4 0 0 0,3 2 0 0 0,9 7 0 0 0,10 9 0 0 0,10 9 0 0 0,8 7 0 0 0,6 6 0 0 0,5 3 0 0 0,3 1 0 0 0,1 1 0 0 0,1 1 0 0 0,2 4 0 0 0,2 4 0 0 0,4 6 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.38">22851 9469 16383 0 0,'2'-2'0'0'0,"9"-5"0"0"0,14-9 0 0 0,19-11 0 0 0,19-12 0 0 0,14-8 0 0 0,5-6 0 0 0,-8 4 0 0 0,-14 8 0 0 0,-19 12 0 0 0,-16 10 0 0 0,-13 9 0 0 0,-10 6 0 0 0,-11 6-16383 0 0,-4 2 16383 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.53">23335 9197 16383 0 0,'0'0'0'0'0,"3"-1"0"0"0,7-5 0 0 0,14-5 0 0 0,12-6 0 0 0,7-2 0 0 0,3-3 0 0 0,-5 1 0 0 0,-4 2 0 0 0,-7 1 0 0 0,-5 2 0 0 0,-5 3 0 0 0,-3 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-2 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 2 0 0 0,-2 2 0 0 0,2-2 0 0 0,2-2 0 0 0,2-3 0 0 0,1-2 0 0 0,-2 0 0 0 0,-3 4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="0.77">34365 12158 16383 0 0,'0'0'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -796,15 +1104,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21">
@@ -871,9 +1180,9 @@
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
@@ -956,43 +1265,43 @@
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -1003,7 +1312,7 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1039,7 +1348,7 @@
       <c r="N11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1050,7 +1359,7 @@
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1086,7 +1395,7 @@
       <c r="N12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -1097,7 +1406,7 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1115,10 +1424,10 @@
       <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1133,7 +1442,7 @@
       <c r="N13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -1144,7 +1453,7 @@
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1162,10 +1471,10 @@
       <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1180,7 +1489,7 @@
       <c r="N14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -1191,7 +1500,7 @@
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1209,10 +1518,10 @@
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1227,7 +1536,7 @@
       <c r="N15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -1238,7 +1547,7 @@
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1250,29 +1559,23 @@
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1584,7 @@
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1299,10 +1602,10 @@
       <c r="H17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1317,7 +1620,7 @@
       <c r="N17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -1328,26 +1631,26 @@
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1362,7 +1665,7 @@
       <c r="N18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -1373,7 +1676,7 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1391,11 +1694,11 @@
       <c r="H19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>18</v>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>2</v>
@@ -1409,7 +1712,7 @@
       <c r="N19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -1420,29 +1723,29 @@
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>21</v>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>2</v>
@@ -1456,7 +1759,7 @@
       <c r="N20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -1467,17 +1770,17 @@
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9" t="s">
+      <c r="E21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1501,7 +1804,7 @@
       <c r="N21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -1512,17 +1815,17 @@
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1546,7 +1849,7 @@
       <c r="N22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -1557,24 +1860,24 @@
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>2</v>
@@ -1591,7 +1894,7 @@
       <c r="N23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -1602,27 +1905,27 @@
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9" t="s">
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>2</v>
+      <c r="I24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>2</v>
@@ -1636,7 +1939,7 @@
       <c r="N24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -1647,28 +1950,26 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="I25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1982,7 @@
       <c r="N25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -1692,28 +1993,28 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="E26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="I26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -1728,7 +2029,7 @@
       <c r="N26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -1739,7 +2040,7 @@
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1754,28 +2055,22 @@
       <c r="G27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="H27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +2079,7 @@
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1802,11 +2097,11 @@
       <c r="H28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>21</v>
+      <c r="I28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>2</v>
@@ -1820,7 +2115,7 @@
       <c r="N28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -1831,7 +2126,7 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1849,17 +2144,17 @@
       <c r="H29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>2</v>
+      <c r="I29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>2</v>
@@ -1867,7 +2162,7 @@
       <c r="N29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -1878,7 +2173,7 @@
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1896,10 +2191,10 @@
       <c r="H30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -1914,7 +2209,7 @@
       <c r="N30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P30" s="2" t="s">
@@ -1925,7 +2220,7 @@
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1952,16 +2247,16 @@
       <c r="K31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" s="9" t="s">
+      <c r="L31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P31" s="2" t="s">
@@ -1969,123 +2264,57 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.75">
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="15.75">
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" ht="15.75">
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>2</v>
@@ -2093,157 +2322,97 @@
       <c r="K34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="15.75">
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>2</v>
+      <c r="B35" s="2"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" ht="15.75">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="17"/>
       <c r="K36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="15.75">
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O37" s="13" t="s">
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -2254,7 +2423,7 @@
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2272,10 +2441,8 @@
       <c r="H38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -2290,7 +2457,7 @@
       <c r="N38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="2" t="s">
@@ -2301,7 +2468,7 @@
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2319,12 +2486,8 @@
       <c r="H39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2500,7 @@
       <c r="N39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -2348,7 +2511,7 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2366,12 +2529,8 @@
       <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2543,7 @@
       <c r="N40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -2395,7 +2554,7 @@
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2413,10 +2572,10 @@
       <c r="H41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="I41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -2431,7 +2590,7 @@
       <c r="N41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P41" s="2" t="s">
@@ -2442,46 +2601,281 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="2" t="s">
+      <c r="C42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="P42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="15.75">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="15.75">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="15.75">
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="15.75">
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="15.75">
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>2</v>
       </c>
     </row>
